--- a/GANTT.xlsx
+++ b/GANTT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ftirokawa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ftirokawa\Documents\GitHub\SynCap_Amigo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -874,95 +874,95 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="26" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="12" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="26" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1182,7 +1182,7 @@
         <xdr:cNvPr id="2" name="Losango 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F5AE7D8-321C-47EA-A491-CFA121F9CD3C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F5AE7D8-321C-47EA-A491-CFA121F9CD3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1250,7 +1250,7 @@
         <xdr:cNvPr id="6" name="Losango 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55DB581B-A50B-4810-9F64-D5D2AF97DD16}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55DB581B-A50B-4810-9F64-D5D2AF97DD16}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1318,7 +1318,7 @@
         <xdr:cNvPr id="8" name="Losango 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CACE49DB-3220-499A-966C-61F3E99B9858}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CACE49DB-3220-499A-966C-61F3E99B9858}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1604,16 +1604,16 @@
   </sheetPr>
   <dimension ref="A1:BP44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" zoomScale="67" zoomScaleNormal="50" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="67" zoomScaleNormal="50" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="61" style="52" customWidth="1"/>
-    <col min="3" max="6" width="11.6640625" style="50" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="65" customWidth="1"/>
+    <col min="2" max="2" width="61" style="45" customWidth="1"/>
+    <col min="3" max="6" width="11.6640625" style="43" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="55" customWidth="1"/>
     <col min="8" max="9" width="5" style="1" customWidth="1"/>
     <col min="10" max="10" width="4.77734375" style="1" customWidth="1"/>
     <col min="11" max="11" width="4.88671875" style="1" customWidth="1"/>
@@ -1646,14 +1646,14 @@
   <sheetData>
     <row r="1" spans="1:42" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
@@ -1692,14 +1692,14 @@
     </row>
     <row r="2" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="58" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="51" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="22">
@@ -1707,67 +1707,67 @@
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="23"/>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
       <c r="P2" s="24"/>
-      <c r="Q2" s="40" t="s">
+      <c r="Q2" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
       <c r="U2" s="25"/>
-      <c r="V2" s="38" t="s">
+      <c r="V2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
       <c r="Z2" s="26"/>
-      <c r="AA2" s="41" t="s">
+      <c r="AA2" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="67"/>
       <c r="AH2" s="27"/>
-      <c r="AI2" s="38" t="s">
+      <c r="AI2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="38"/>
-      <c r="AO2" s="38"/>
-      <c r="AP2" s="38"/>
+      <c r="AJ2" s="58"/>
+      <c r="AK2" s="58"/>
+      <c r="AL2" s="58"/>
+      <c r="AM2" s="58"/>
+      <c r="AN2" s="58"/>
+      <c r="AO2" s="58"/>
+      <c r="AP2" s="58"/>
     </row>
     <row r="3" spans="1:42" s="3" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="63" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="28" t="s">
@@ -1810,12 +1810,12 @@
     </row>
     <row r="4" spans="1:42" s="3" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
       <c r="H4" s="10" t="s">
         <v>15</v>
       </c>
@@ -1843,7 +1843,7 @@
       <c r="P4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="42" t="s">
+      <c r="Q4" s="38" t="s">
         <v>25</v>
       </c>
       <c r="R4" s="11" t="s">
@@ -1900,10 +1900,10 @@
       <c r="AI4" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="AJ4" s="67" t="s">
+      <c r="AJ4" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="AK4" s="67" t="s">
+      <c r="AK4" s="57" t="s">
         <v>44</v>
       </c>
       <c r="AL4" s="32" t="s">
@@ -1916,12 +1916,12 @@
     </row>
     <row r="5" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
       <c r="H5" s="33">
         <v>1</v>
       </c>
@@ -1973,7 +1973,7 @@
       <c r="X5" s="33">
         <v>17</v>
       </c>
-      <c r="Y5" s="53">
+      <c r="Y5" s="46">
         <v>18</v>
       </c>
       <c r="Z5" s="33">
@@ -2006,10 +2006,10 @@
       <c r="AI5" s="33">
         <v>28</v>
       </c>
-      <c r="AJ5" s="53">
+      <c r="AJ5" s="46">
         <v>29</v>
       </c>
-      <c r="AK5" s="53">
+      <c r="AK5" s="46">
         <v>30</v>
       </c>
       <c r="AL5" s="34">
@@ -2022,22 +2022,22 @@
     </row>
     <row r="6" spans="1:42" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="54">
+      <c r="C6" s="47">
         <v>1</v>
       </c>
-      <c r="D6" s="54">
+      <c r="D6" s="47">
         <v>25</v>
       </c>
-      <c r="E6" s="54">
+      <c r="E6" s="47">
         <v>1</v>
       </c>
-      <c r="F6" s="54">
+      <c r="F6" s="47">
         <v>17</v>
       </c>
-      <c r="G6" s="62">
+      <c r="G6" s="52">
         <v>1</v>
       </c>
       <c r="H6" s="5"/>
@@ -2078,22 +2078,22 @@
     </row>
     <row r="7" spans="1:42" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="55">
+      <c r="C7" s="48">
         <v>2</v>
       </c>
-      <c r="D7" s="55">
+      <c r="D7" s="48">
         <v>8</v>
       </c>
-      <c r="E7" s="55">
+      <c r="E7" s="48">
         <v>2</v>
       </c>
-      <c r="F7" s="55">
+      <c r="F7" s="48">
         <v>8</v>
       </c>
-      <c r="G7" s="63">
+      <c r="G7" s="53">
         <v>1</v>
       </c>
       <c r="H7" s="8"/>
@@ -2134,22 +2134,22 @@
     </row>
     <row r="8" spans="1:42" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="55">
+      <c r="C8" s="48">
         <v>2</v>
       </c>
-      <c r="D8" s="55">
+      <c r="D8" s="48">
         <v>2</v>
       </c>
-      <c r="E8" s="55">
+      <c r="E8" s="48">
         <v>2</v>
       </c>
-      <c r="F8" s="55">
+      <c r="F8" s="48">
         <v>2</v>
       </c>
-      <c r="G8" s="63">
+      <c r="G8" s="53">
         <v>1</v>
       </c>
       <c r="H8" s="8"/>
@@ -2190,22 +2190,22 @@
     </row>
     <row r="9" spans="1:42" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="55">
+      <c r="C9" s="48">
         <v>4</v>
       </c>
-      <c r="D9" s="55">
+      <c r="D9" s="48">
         <v>4</v>
       </c>
-      <c r="E9" s="55">
+      <c r="E9" s="48">
         <v>4</v>
       </c>
-      <c r="F9" s="55">
+      <c r="F9" s="48">
         <v>4</v>
       </c>
-      <c r="G9" s="63">
+      <c r="G9" s="53">
         <v>1</v>
       </c>
       <c r="H9" s="8"/>
@@ -2246,22 +2246,22 @@
     </row>
     <row r="10" spans="1:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="55">
+      <c r="C10" s="48">
         <v>0</v>
       </c>
-      <c r="D10" s="55">
+      <c r="D10" s="48">
         <v>0</v>
       </c>
-      <c r="E10" s="55">
+      <c r="E10" s="48">
         <v>0</v>
       </c>
-      <c r="F10" s="55">
+      <c r="F10" s="48">
         <v>0</v>
       </c>
-      <c r="G10" s="63">
+      <c r="G10" s="53">
         <v>0</v>
       </c>
       <c r="H10" s="8"/>
@@ -2302,22 +2302,22 @@
     </row>
     <row r="11" spans="1:42" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="55">
+      <c r="C11" s="48">
         <v>9</v>
       </c>
-      <c r="D11" s="55">
+      <c r="D11" s="48">
         <v>1</v>
       </c>
-      <c r="E11" s="55">
+      <c r="E11" s="48">
         <v>9</v>
       </c>
-      <c r="F11" s="55">
+      <c r="F11" s="48">
         <v>1</v>
       </c>
-      <c r="G11" s="63">
+      <c r="G11" s="53">
         <v>1</v>
       </c>
       <c r="H11" s="8"/>
@@ -2358,22 +2358,22 @@
     </row>
     <row r="12" spans="1:42" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="55">
+      <c r="C12" s="48">
         <v>11</v>
       </c>
-      <c r="D12" s="55">
+      <c r="D12" s="48">
         <v>1</v>
       </c>
-      <c r="E12" s="55">
+      <c r="E12" s="48">
         <v>13</v>
       </c>
-      <c r="F12" s="55">
+      <c r="F12" s="48">
         <v>1</v>
       </c>
-      <c r="G12" s="63">
+      <c r="G12" s="53">
         <v>1</v>
       </c>
       <c r="H12" s="8"/>
@@ -2414,21 +2414,21 @@
     </row>
     <row r="13" spans="1:42" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="55">
+      <c r="C13" s="48">
         <v>12</v>
       </c>
-      <c r="D13" s="55">
+      <c r="D13" s="48">
         <v>5</v>
       </c>
-      <c r="E13" s="55">
+      <c r="E13" s="48">
         <v>13</v>
       </c>
-      <c r="F13" s="55"/>
-      <c r="G13" s="63">
-        <v>0.3</v>
+      <c r="F13" s="48"/>
+      <c r="G13" s="53">
+        <v>0.33</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -2468,18 +2468,18 @@
     </row>
     <row r="14" spans="1:42" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="55">
+      <c r="C14" s="48">
         <v>17</v>
       </c>
-      <c r="D14" s="55">
+      <c r="D14" s="48">
         <v>1</v>
       </c>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="63">
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="53">
         <v>0</v>
       </c>
       <c r="H14" s="8"/>
@@ -2520,18 +2520,18 @@
     </row>
     <row r="15" spans="1:42" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="55">
+      <c r="C15" s="48">
         <v>19</v>
       </c>
-      <c r="D15" s="55">
+      <c r="D15" s="48">
         <v>1</v>
       </c>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="63">
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="53">
         <v>0</v>
       </c>
       <c r="H15" s="8"/>
@@ -2572,22 +2572,22 @@
     </row>
     <row r="16" spans="1:42" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="55">
+      <c r="C16" s="48">
         <v>20</v>
       </c>
-      <c r="D16" s="55">
+      <c r="D16" s="48">
         <v>1</v>
       </c>
-      <c r="E16" s="55">
+      <c r="E16" s="48">
         <v>11</v>
       </c>
-      <c r="F16" s="55">
+      <c r="F16" s="48">
         <v>1</v>
       </c>
-      <c r="G16" s="63">
+      <c r="G16" s="53">
         <v>0.5</v>
       </c>
       <c r="H16" s="8"/>
@@ -2628,18 +2628,18 @@
     </row>
     <row r="17" spans="1:42" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="55">
+      <c r="C17" s="48">
         <v>21</v>
       </c>
-      <c r="D17" s="55">
+      <c r="D17" s="48">
         <v>2</v>
       </c>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="63">
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="53">
         <v>0</v>
       </c>
       <c r="H17" s="8"/>
@@ -2680,18 +2680,18 @@
     </row>
     <row r="18" spans="1:42" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="55">
+      <c r="C18" s="48">
         <v>21</v>
       </c>
-      <c r="D18" s="55">
+      <c r="D18" s="48">
         <v>2</v>
       </c>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="63">
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="53">
         <v>0</v>
       </c>
       <c r="H18" s="8"/>
@@ -2732,18 +2732,22 @@
     </row>
     <row r="19" spans="1:42" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="55">
+      <c r="C19" s="48">
         <v>24</v>
       </c>
-      <c r="D19" s="55">
+      <c r="D19" s="48">
         <v>2</v>
       </c>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="63">
+      <c r="E19" s="48">
+        <v>13</v>
+      </c>
+      <c r="F19" s="48">
+        <v>1</v>
+      </c>
+      <c r="G19" s="53">
         <v>0</v>
       </c>
       <c r="H19" s="8"/>
@@ -2784,23 +2788,23 @@
     </row>
     <row r="20" spans="1:42" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="55">
+      <c r="C20" s="48">
         <v>16</v>
       </c>
-      <c r="D20" s="55">
+      <c r="D20" s="48">
         <v>2</v>
       </c>
-      <c r="E20" s="55">
+      <c r="E20" s="48">
         <v>16</v>
       </c>
-      <c r="F20" s="55">
+      <c r="F20" s="48">
         <v>2</v>
       </c>
-      <c r="G20" s="63">
-        <v>0.9</v>
+      <c r="G20" s="53">
+        <v>1</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -2840,22 +2844,22 @@
     </row>
     <row r="21" spans="1:42" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="55">
+      <c r="C21" s="48">
         <v>0</v>
       </c>
-      <c r="D21" s="55">
+      <c r="D21" s="48">
         <v>0</v>
       </c>
-      <c r="E21" s="55">
+      <c r="E21" s="48">
         <v>0</v>
       </c>
-      <c r="F21" s="55">
+      <c r="F21" s="48">
         <v>0</v>
       </c>
-      <c r="G21" s="63">
+      <c r="G21" s="53">
         <v>0</v>
       </c>
       <c r="H21" s="8"/>
@@ -2896,22 +2900,22 @@
     </row>
     <row r="22" spans="1:42" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="55">
+      <c r="C22" s="48">
         <v>25</v>
       </c>
-      <c r="D22" s="55">
+      <c r="D22" s="48">
         <v>6</v>
       </c>
-      <c r="E22" s="55">
+      <c r="E22" s="48">
         <v>0</v>
       </c>
-      <c r="F22" s="55">
+      <c r="F22" s="48">
         <v>0</v>
       </c>
-      <c r="G22" s="63">
+      <c r="G22" s="53">
         <v>0</v>
       </c>
       <c r="H22" s="8"/>
@@ -2952,22 +2956,22 @@
     </row>
     <row r="23" spans="1:42" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="55">
+      <c r="C23" s="48">
         <v>29</v>
       </c>
-      <c r="D23" s="55">
+      <c r="D23" s="48">
         <v>2</v>
       </c>
-      <c r="E23" s="55">
+      <c r="E23" s="48">
         <v>0</v>
       </c>
-      <c r="F23" s="55">
+      <c r="F23" s="48">
         <v>0</v>
       </c>
-      <c r="G23" s="63">
+      <c r="G23" s="53">
         <v>0</v>
       </c>
       <c r="H23" s="8"/>
@@ -3008,22 +3012,22 @@
     </row>
     <row r="24" spans="1:42" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="56">
+      <c r="C24" s="49">
         <v>0</v>
       </c>
-      <c r="D24" s="56">
+      <c r="D24" s="49">
         <v>0</v>
       </c>
-      <c r="E24" s="56">
+      <c r="E24" s="49">
         <v>0</v>
       </c>
-      <c r="F24" s="56">
+      <c r="F24" s="49">
         <v>0</v>
       </c>
-      <c r="G24" s="64">
+      <c r="G24" s="54">
         <v>0</v>
       </c>
       <c r="H24" s="19"/>
@@ -3063,8 +3067,8 @@
       <c r="AP24" s="4"/>
     </row>
     <row r="25" spans="1:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="50"/>
-      <c r="G25" s="50"/>
+      <c r="B25" s="43"/>
+      <c r="G25" s="43"/>
       <c r="H25" s="2"/>
       <c r="I25"/>
       <c r="J25" s="2"/>
@@ -3087,8 +3091,8 @@
       <c r="AA25" s="2"/>
     </row>
     <row r="26" spans="1:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="50"/>
-      <c r="G26" s="50"/>
+      <c r="B26" s="43"/>
+      <c r="G26" s="43"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -3111,8 +3115,8 @@
       <c r="AA26" s="2"/>
     </row>
     <row r="27" spans="1:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="50"/>
-      <c r="G27" s="50"/>
+      <c r="B27" s="43"/>
+      <c r="G27" s="43"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -3135,8 +3139,8 @@
       <c r="AA27" s="2"/>
     </row>
     <row r="28" spans="1:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="50"/>
-      <c r="G28" s="50"/>
+      <c r="B28" s="43"/>
+      <c r="G28" s="43"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -3159,8 +3163,8 @@
       <c r="AA28" s="2"/>
     </row>
     <row r="29" spans="1:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="50"/>
-      <c r="G29" s="50"/>
+      <c r="B29" s="43"/>
+      <c r="G29" s="43"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -3183,8 +3187,8 @@
       <c r="AA29" s="2"/>
     </row>
     <row r="30" spans="1:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="50"/>
-      <c r="G30" s="50"/>
+      <c r="B30" s="43"/>
+      <c r="G30" s="43"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -3207,8 +3211,8 @@
       <c r="AA30" s="2"/>
     </row>
     <row r="31" spans="1:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="50"/>
-      <c r="G31" s="50"/>
+      <c r="B31" s="43"/>
+      <c r="G31" s="43"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -3231,8 +3235,8 @@
       <c r="AA31" s="2"/>
     </row>
     <row r="32" spans="1:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="50"/>
-      <c r="G32" s="50"/>
+      <c r="B32" s="43"/>
+      <c r="G32" s="43"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -3255,8 +3259,8 @@
       <c r="AA32" s="2"/>
     </row>
     <row r="33" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="50"/>
-      <c r="G33" s="50"/>
+      <c r="B33" s="43"/>
+      <c r="G33" s="43"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -3279,8 +3283,8 @@
       <c r="AA33" s="2"/>
     </row>
     <row r="34" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="50"/>
-      <c r="G34" s="50"/>
+      <c r="B34" s="43"/>
+      <c r="G34" s="43"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -3303,8 +3307,8 @@
       <c r="AA34" s="2"/>
     </row>
     <row r="35" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="50"/>
-      <c r="G35" s="50"/>
+      <c r="B35" s="43"/>
+      <c r="G35" s="43"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -3327,8 +3331,8 @@
       <c r="AA35" s="2"/>
     </row>
     <row r="36" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="50"/>
-      <c r="G36" s="50"/>
+      <c r="B36" s="43"/>
+      <c r="G36" s="43"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -3351,8 +3355,8 @@
       <c r="AA36" s="2"/>
     </row>
     <row r="37" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="50"/>
-      <c r="G37" s="50"/>
+      <c r="B37" s="43"/>
+      <c r="G37" s="43"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -3375,8 +3379,8 @@
       <c r="AA37" s="2"/>
     </row>
     <row r="38" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="50"/>
-      <c r="G38" s="50"/>
+      <c r="B38" s="43"/>
+      <c r="G38" s="43"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
@@ -3399,8 +3403,8 @@
       <c r="AA38" s="2"/>
     </row>
     <row r="39" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="50"/>
-      <c r="G39" s="50"/>
+      <c r="B39" s="43"/>
+      <c r="G39" s="43"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
@@ -3423,8 +3427,8 @@
       <c r="AA39" s="2"/>
     </row>
     <row r="40" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="50"/>
-      <c r="G40" s="50"/>
+      <c r="B40" s="43"/>
+      <c r="G40" s="43"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
@@ -3447,8 +3451,8 @@
       <c r="AA40" s="2"/>
     </row>
     <row r="41" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="50"/>
-      <c r="G41" s="50"/>
+      <c r="B41" s="43"/>
+      <c r="G41" s="43"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -3471,12 +3475,12 @@
       <c r="AA41" s="2"/>
     </row>
     <row r="42" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>

--- a/GANTT.xlsx
+++ b/GANTT.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7536"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7536" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart1" sheetId="2" r:id="rId1"/>
+    <sheet name="Project Planner" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Actual">(PeriodInActual*('Project Planner'!$E1&gt;0))*PeriodInPlan</definedName>
@@ -23,7 +24,7 @@
     <definedName name="PeriodInActual">'Project Planner'!A$5=MEDIAN('Project Planner'!A$5,'Project Planner'!$E1,'Project Planner'!$E1+'Project Planner'!$F1-1)</definedName>
     <definedName name="PeriodInPlan">'Project Planner'!A$5=MEDIAN('Project Planner'!A$5,'Project Planner'!$C1,'Project Planner'!$C1+'Project Planner'!$D1-1)</definedName>
     <definedName name="Plan">PeriodInPlan*('Project Planner'!$C1&gt;0)</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Project Planner'!$3:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Project Planner'!$3:$5</definedName>
     <definedName name="TitleRegion..BO60">'Project Planner'!$B$3:$B$5</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -1162,7 +1163,798 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-314412192"/>
+        <c:axId val="-314403488"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-314412192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-314403488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-314403488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-314412192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="93" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9283290" cy="6055032"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1182,7 +1974,7 @@
         <xdr:cNvPr id="2" name="Losango 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F5AE7D8-321C-47EA-A491-CFA121F9CD3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F5AE7D8-321C-47EA-A491-CFA121F9CD3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1250,7 +2042,7 @@
         <xdr:cNvPr id="6" name="Losango 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55DB581B-A50B-4810-9F64-D5D2AF97DD16}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55DB581B-A50B-4810-9F64-D5D2AF97DD16}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1318,7 +2110,7 @@
         <xdr:cNvPr id="8" name="Losango 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CACE49DB-3220-499A-966C-61F3E99B9858}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CACE49DB-3220-499A-966C-61F3E99B9858}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1604,8 +2396,8 @@
   </sheetPr>
   <dimension ref="A1:BP44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="67" zoomScaleNormal="50" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="67" zoomScaleNormal="50" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
